--- a/input_xlsx/[MF]_[29-04-2019].xlsx
+++ b/input_xlsx/[MF]_[29-04-2019].xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VOLUNTEER\TAMBORA MUDA\PENULISAN MANUSCRIPT\Biodiverskripsi\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="8130" tabRatio="503"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="8130" tabRatio="503" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling Events" sheetId="2" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="Literature" sheetId="6" r:id="rId3"/>
     <sheet name="Measurement" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +28,7 @@
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -165,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -253,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -297,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -341,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -385,7 +380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -429,7 +424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -473,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -517,7 +512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -561,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -605,7 +600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -649,7 +644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -693,7 +688,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -737,7 +732,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -781,7 +776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -825,7 +820,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="1" shapeId="0">
+    <comment ref="T1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -860,7 +855,7 @@
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -904,7 +899,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -948,7 +943,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -992,7 +987,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1036,7 +1031,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1080,7 +1075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1134,7 +1129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1178,7 +1173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1222,7 +1217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1266,7 +1261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1310,7 +1305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1354,7 +1349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1398,7 +1393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1442,7 +1437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1486,7 +1481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1530,7 +1525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1574,7 +1569,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="1" shapeId="0">
+    <comment ref="Q1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1609,7 +1604,7 @@
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1653,7 +1648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1697,7 +1692,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1741,7 +1736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1785,7 +1780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1829,7 +1824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1873,7 +1868,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1917,7 +1912,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1961,7 +1956,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2005,7 +2000,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0">
+    <comment ref="J1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2039,7 +2034,7 @@
     <author>Kyle Braak</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2083,7 +2078,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2127,7 +2122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2152,7 +2147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2196,7 +2191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2240,7 +2235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2284,7 +2279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2328,7 +2323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2372,7 +2367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2421,7 +2416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4623" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4623" uniqueCount="877">
   <si>
     <t>occurrenceID</t>
   </si>
@@ -4995,6 +4990,63 @@
   </si>
   <si>
     <t>stateProvince</t>
+  </si>
+  <si>
+    <t>IPB-2017AS-MF030-IS003-TN060</t>
+  </si>
+  <si>
+    <t>IPB-2017AS-MF030-IS003-TN061</t>
+  </si>
+  <si>
+    <t>IPB-2017AS-MF030-IS003-TN062</t>
+  </si>
+  <si>
+    <t>IPB-2017AS-MF030-IS003-TN063</t>
+  </si>
+  <si>
+    <t>IPB-2017AS-MF030-IS003-TN064</t>
+  </si>
+  <si>
+    <t>IPB-2017AS-MF030-IS003-TN065</t>
+  </si>
+  <si>
+    <t>IPB-2017AS-MF030-IS003-TN066</t>
+  </si>
+  <si>
+    <t>IPB-2017AS-MF030-IS003-TN067</t>
+  </si>
+  <si>
+    <t>IPB-2017AS-MF030-IS003-TN068</t>
+  </si>
+  <si>
+    <t>IPB-2017AS-MF030-IS004-TN070</t>
+  </si>
+  <si>
+    <t>IPB-2017AS-MF030-IS004-TN071</t>
+  </si>
+  <si>
+    <t>IPB-2017AS-MF030-IS004-TN072</t>
+  </si>
+  <si>
+    <t>IPB-2017AS-MF030-IS004-TN073</t>
+  </si>
+  <si>
+    <t>IPB-2017AS-MF030-IS004-TN074</t>
+  </si>
+  <si>
+    <t>IPB-2017AS-MF030-IS004-TN075</t>
+  </si>
+  <si>
+    <t>IPB-2017AS-MF030-IS004-TN076</t>
+  </si>
+  <si>
+    <t>IPB-2017AS-MF030-IS004-TN077</t>
+  </si>
+  <si>
+    <t>IPB-2017AS-MF030-IS004-TN078</t>
+  </si>
+  <si>
+    <t>IPB-2017AS-MF030-IS004-TN079</t>
   </si>
 </sst>
 </file>
@@ -5816,34 +5868,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="24.875" customWidth="1"/>
-    <col min="3" max="3" width="22.125" customWidth="1"/>
-    <col min="4" max="4" width="18.875" customWidth="1"/>
-    <col min="5" max="5" width="44.625" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22.08203125" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="44.58203125" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="10" width="14.875" customWidth="1"/>
+    <col min="9" max="10" width="14.83203125" customWidth="1"/>
     <col min="11" max="11" width="35" style="3" customWidth="1"/>
     <col min="12" max="12" width="34.75" style="3" customWidth="1"/>
-    <col min="13" max="13" width="16.125" customWidth="1"/>
+    <col min="13" max="13" width="16.08203125" customWidth="1"/>
     <col min="14" max="15" width="13.5" customWidth="1"/>
     <col min="16" max="16" width="32.25" customWidth="1"/>
-    <col min="17" max="17" width="14.875" customWidth="1"/>
+    <col min="17" max="17" width="14.83203125" customWidth="1"/>
     <col min="18" max="18" width="17.75" customWidth="1"/>
     <col min="19" max="19" width="61.25" customWidth="1"/>
     <col min="20" max="20" width="52.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
@@ -5905,7 +5957,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>52</v>
       </c>
@@ -5957,7 +6009,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>52</v>
       </c>
@@ -6009,7 +6061,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>52</v>
       </c>
@@ -6061,7 +6113,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>52</v>
       </c>
@@ -6113,7 +6165,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>52</v>
       </c>
@@ -6165,7 +6217,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>52</v>
       </c>
@@ -6217,7 +6269,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>52</v>
       </c>
@@ -6269,7 +6321,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>52</v>
       </c>
@@ -6321,7 +6373,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
         <v>211</v>
       </c>
@@ -6373,7 +6425,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
         <v>211</v>
       </c>
@@ -6425,7 +6477,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>211</v>
       </c>
@@ -6477,7 +6529,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
         <v>211</v>
       </c>
@@ -6529,7 +6581,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="27" t="s">
         <v>211</v>
       </c>
@@ -6581,7 +6633,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="27" t="s">
         <v>211</v>
       </c>
@@ -6633,7 +6685,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>751</v>
       </c>
@@ -6685,7 +6737,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>751</v>
       </c>
@@ -6737,7 +6789,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
         <v>751</v>
       </c>
@@ -6789,163 +6841,163 @@
         <v>769</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="K19"/>
       <c r="L19"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="K20"/>
       <c r="L20"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="K21"/>
       <c r="L21"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="K22"/>
       <c r="L22"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="K23"/>
       <c r="L23"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="K24"/>
       <c r="L24"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="K25"/>
       <c r="L25"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="K26"/>
       <c r="L26"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="K27"/>
       <c r="L27"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="K28"/>
       <c r="L28"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="K29"/>
       <c r="L29"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="K30"/>
       <c r="L30"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="K31"/>
       <c r="L31"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="K32"/>
       <c r="L32"/>
     </row>
-    <row r="33" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K33"/>
       <c r="L33"/>
     </row>
-    <row r="34" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K34"/>
       <c r="L34"/>
     </row>
-    <row r="35" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K35"/>
       <c r="L35"/>
     </row>
-    <row r="36" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K36"/>
       <c r="L36"/>
     </row>
-    <row r="37" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K37"/>
       <c r="L37"/>
     </row>
-    <row r="38" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K38"/>
       <c r="L38"/>
     </row>
-    <row r="39" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K39"/>
       <c r="L39"/>
     </row>
-    <row r="40" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K40"/>
       <c r="L40"/>
     </row>
-    <row r="41" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K41"/>
       <c r="L41"/>
     </row>
-    <row r="42" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K42"/>
       <c r="L42"/>
     </row>
-    <row r="43" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K43"/>
       <c r="L43"/>
     </row>
-    <row r="44" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K44"/>
       <c r="L44"/>
     </row>
-    <row r="45" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K45"/>
       <c r="L45"/>
     </row>
-    <row r="46" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K46"/>
       <c r="L46"/>
     </row>
-    <row r="47" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K47"/>
       <c r="L47"/>
     </row>
-    <row r="48" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K48"/>
       <c r="L48"/>
     </row>
-    <row r="49" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K49"/>
       <c r="L49"/>
     </row>
-    <row r="50" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K50"/>
       <c r="L50"/>
     </row>
-    <row r="51" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K51"/>
       <c r="L51"/>
     </row>
-    <row r="52" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K52"/>
       <c r="L52"/>
     </row>
-    <row r="53" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K53"/>
       <c r="L53"/>
     </row>
-    <row r="54" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K54"/>
       <c r="L54"/>
     </row>
-    <row r="55" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K55"/>
       <c r="L55"/>
     </row>
-    <row r="56" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K56"/>
       <c r="L56"/>
     </row>
-    <row r="57" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K57"/>
       <c r="L57"/>
     </row>
-    <row r="58" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K58"/>
       <c r="L58"/>
     </row>
@@ -6965,32 +7017,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q447"/>
   <sheetViews>
-    <sheetView topLeftCell="I55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B452" sqref="B452"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70:B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="31.875" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="27.9140625" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
     <col min="4" max="4" width="27.25" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="28.125" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="24.625" customWidth="1"/>
-    <col min="9" max="9" width="18.875" customWidth="1"/>
-    <col min="10" max="10" width="18.625" customWidth="1"/>
-    <col min="11" max="11" width="15.625" customWidth="1"/>
-    <col min="12" max="12" width="13.125" customWidth="1"/>
-    <col min="13" max="13" width="17.125" customWidth="1"/>
-    <col min="14" max="14" width="17.875" customWidth="1"/>
-    <col min="15" max="15" width="24.125" customWidth="1"/>
-    <col min="16" max="16" width="17.375" customWidth="1"/>
-    <col min="17" max="17" width="50.125" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="28.08203125" customWidth="1"/>
+    <col min="7" max="7" width="12.58203125" customWidth="1"/>
+    <col min="8" max="8" width="24.58203125" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="18.58203125" customWidth="1"/>
+    <col min="11" max="11" width="15.58203125" customWidth="1"/>
+    <col min="12" max="12" width="13.08203125" customWidth="1"/>
+    <col min="13" max="13" width="17.08203125" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" customWidth="1"/>
+    <col min="15" max="15" width="24.08203125" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" customWidth="1"/>
+    <col min="17" max="17" width="50.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -7043,7 +7095,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>229</v>
       </c>
@@ -7082,7 +7134,7 @@
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>229</v>
       </c>
@@ -7121,7 +7173,7 @@
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>229</v>
       </c>
@@ -7160,7 +7212,7 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>229</v>
       </c>
@@ -7199,7 +7251,7 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>229</v>
       </c>
@@ -7238,7 +7290,7 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>229</v>
       </c>
@@ -7277,7 +7329,7 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>229</v>
       </c>
@@ -7316,7 +7368,7 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>229</v>
       </c>
@@ -7355,7 +7407,7 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>229</v>
       </c>
@@ -7394,7 +7446,7 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>229</v>
       </c>
@@ -7433,7 +7485,7 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>229</v>
       </c>
@@ -7472,7 +7524,7 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>229</v>
       </c>
@@ -7511,7 +7563,7 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>229</v>
       </c>
@@ -7550,7 +7602,7 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>229</v>
       </c>
@@ -7589,7 +7641,7 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>229</v>
       </c>
@@ -7628,7 +7680,7 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>229</v>
       </c>
@@ -7667,7 +7719,7 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
         <v>229</v>
       </c>
@@ -7706,7 +7758,7 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
         <v>229</v>
       </c>
@@ -7745,7 +7797,7 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
         <v>229</v>
       </c>
@@ -7784,7 +7836,7 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
         <v>229</v>
       </c>
@@ -7823,7 +7875,7 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
         <v>229</v>
       </c>
@@ -7862,7 +7914,7 @@
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>229</v>
       </c>
@@ -7901,7 +7953,7 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
         <v>229</v>
       </c>
@@ -7940,7 +7992,7 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
         <v>229</v>
       </c>
@@ -7979,7 +8031,7 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
         <v>229</v>
       </c>
@@ -8018,7 +8070,7 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
         <v>229</v>
       </c>
@@ -8057,7 +8109,7 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
         <v>229</v>
       </c>
@@ -8096,7 +8148,7 @@
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
         <v>229</v>
       </c>
@@ -8135,7 +8187,7 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
         <v>229</v>
       </c>
@@ -8174,7 +8226,7 @@
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
         <v>229</v>
       </c>
@@ -8213,7 +8265,7 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
         <v>229</v>
       </c>
@@ -8252,7 +8304,7 @@
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
         <v>229</v>
       </c>
@@ -8291,7 +8343,7 @@
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
         <v>229</v>
       </c>
@@ -8330,7 +8382,7 @@
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
         <v>229</v>
       </c>
@@ -8369,7 +8421,7 @@
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
         <v>229</v>
       </c>
@@ -8408,7 +8460,7 @@
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
         <v>229</v>
       </c>
@@ -8447,7 +8499,7 @@
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>229</v>
       </c>
@@ -8486,7 +8538,7 @@
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
         <v>230</v>
       </c>
@@ -8525,7 +8577,7 @@
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
         <v>230</v>
       </c>
@@ -8564,7 +8616,7 @@
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
         <v>230</v>
       </c>
@@ -8603,7 +8655,7 @@
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="s">
         <v>230</v>
       </c>
@@ -8642,7 +8694,7 @@
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
         <v>230</v>
       </c>
@@ -8681,7 +8733,7 @@
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="18" t="s">
         <v>230</v>
       </c>
@@ -8720,7 +8772,7 @@
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="18" t="s">
         <v>230</v>
       </c>
@@ -8759,7 +8811,7 @@
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
         <v>230</v>
       </c>
@@ -8798,7 +8850,7 @@
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
         <v>230</v>
       </c>
@@ -8837,7 +8889,7 @@
       <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
         <v>230</v>
       </c>
@@ -8876,7 +8928,7 @@
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
         <v>230</v>
       </c>
@@ -8915,7 +8967,7 @@
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
         <v>230</v>
       </c>
@@ -8954,7 +9006,7 @@
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="s">
         <v>230</v>
       </c>
@@ -8993,7 +9045,7 @@
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
         <v>230</v>
       </c>
@@ -9032,7 +9084,7 @@
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
         <v>230</v>
       </c>
@@ -9071,7 +9123,7 @@
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
         <v>230</v>
       </c>
@@ -9110,7 +9162,7 @@
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
         <v>230</v>
       </c>
@@ -9149,7 +9201,7 @@
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
         <v>230</v>
       </c>
@@ -9188,7 +9240,7 @@
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="s">
         <v>230</v>
       </c>
@@ -9227,7 +9279,7 @@
       <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
         <v>230</v>
       </c>
@@ -9266,7 +9318,7 @@
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
         <v>230</v>
       </c>
@@ -9305,7 +9357,7 @@
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="18" t="s">
         <v>231</v>
       </c>
@@ -9344,12 +9396,12 @@
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="18" t="s">
         <v>231</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>365</v>
+        <v>858</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>81</v>
@@ -9383,12 +9435,12 @@
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="18" t="s">
         <v>231</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>365</v>
+        <v>859</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>81</v>
@@ -9422,12 +9474,12 @@
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="18" t="s">
         <v>231</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>365</v>
+        <v>860</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>81</v>
@@ -9461,12 +9513,12 @@
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="18" t="s">
         <v>231</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>365</v>
+        <v>861</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>81</v>
@@ -9500,12 +9552,12 @@
       <c r="P64" s="6"/>
       <c r="Q64" s="6"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="18" t="s">
         <v>231</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>365</v>
+        <v>862</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>81</v>
@@ -9539,12 +9591,12 @@
       <c r="P65" s="6"/>
       <c r="Q65" s="6"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="18" t="s">
         <v>231</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>365</v>
+        <v>863</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>81</v>
@@ -9578,12 +9630,12 @@
       <c r="P66" s="6"/>
       <c r="Q66" s="6"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="18" t="s">
         <v>231</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>365</v>
+        <v>864</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>81</v>
@@ -9617,12 +9669,12 @@
       <c r="P67" s="6"/>
       <c r="Q67" s="6"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="18" t="s">
         <v>231</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>365</v>
+        <v>865</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>81</v>
@@ -9656,12 +9708,12 @@
       <c r="P68" s="6"/>
       <c r="Q68" s="6"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="18" t="s">
         <v>231</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>365</v>
+        <v>866</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>81</v>
@@ -9695,7 +9747,7 @@
       <c r="P69" s="6"/>
       <c r="Q69" s="6"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="18" t="s">
         <v>232</v>
       </c>
@@ -9734,12 +9786,12 @@
       <c r="P70" s="6"/>
       <c r="Q70" s="6"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="18" t="s">
         <v>232</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>366</v>
+        <v>867</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>81</v>
@@ -9773,12 +9825,12 @@
       <c r="P71" s="6"/>
       <c r="Q71" s="6"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="18" t="s">
         <v>232</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>366</v>
+        <v>868</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>81</v>
@@ -9812,12 +9864,12 @@
       <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="18" t="s">
         <v>232</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>366</v>
+        <v>869</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>81</v>
@@ -9851,12 +9903,12 @@
       <c r="P73" s="6"/>
       <c r="Q73" s="6"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" s="18" t="s">
         <v>232</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>366</v>
+        <v>870</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>81</v>
@@ -9890,12 +9942,12 @@
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" s="18" t="s">
         <v>232</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>366</v>
+        <v>871</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>81</v>
@@ -9929,12 +9981,12 @@
       <c r="P75" s="6"/>
       <c r="Q75" s="6"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" s="18" t="s">
         <v>232</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>366</v>
+        <v>872</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>81</v>
@@ -9968,12 +10020,12 @@
       <c r="P76" s="6"/>
       <c r="Q76" s="6"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" s="18" t="s">
         <v>232</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>366</v>
+        <v>873</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>81</v>
@@ -10007,12 +10059,12 @@
       <c r="P77" s="6"/>
       <c r="Q77" s="6"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" s="18" t="s">
         <v>232</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>366</v>
+        <v>874</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>81</v>
@@ -10046,12 +10098,12 @@
       <c r="P78" s="6"/>
       <c r="Q78" s="6"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" s="18" t="s">
         <v>232</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>366</v>
+        <v>875</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>81</v>
@@ -10085,12 +10137,12 @@
       <c r="P79" s="6"/>
       <c r="Q79" s="6"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" s="18" t="s">
         <v>232</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>366</v>
+        <v>876</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>81</v>
@@ -10124,7 +10176,7 @@
       <c r="P80" s="6"/>
       <c r="Q80" s="6"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81" s="18" t="s">
         <v>233</v>
       </c>
@@ -10165,7 +10217,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82" s="18" t="s">
         <v>233</v>
       </c>
@@ -10206,7 +10258,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83" s="18" t="s">
         <v>233</v>
       </c>
@@ -10247,7 +10299,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84" s="18" t="s">
         <v>233</v>
       </c>
@@ -10288,7 +10340,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85" s="18" t="s">
         <v>233</v>
       </c>
@@ -10329,7 +10381,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86" s="18" t="s">
         <v>233</v>
       </c>
@@ -10370,7 +10422,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87" s="18" t="s">
         <v>233</v>
       </c>
@@ -10411,7 +10463,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88" s="18" t="s">
         <v>233</v>
       </c>
@@ -10452,7 +10504,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89" s="18" t="s">
         <v>233</v>
       </c>
@@ -10493,7 +10545,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90" s="18" t="s">
         <v>233</v>
       </c>
@@ -10534,7 +10586,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91" s="18" t="s">
         <v>233</v>
       </c>
@@ -10575,7 +10627,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92" s="18" t="s">
         <v>233</v>
       </c>
@@ -10616,7 +10668,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93" s="18" t="s">
         <v>233</v>
       </c>
@@ -10657,7 +10709,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94" s="18" t="s">
         <v>233</v>
       </c>
@@ -10698,7 +10750,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95" s="18" t="s">
         <v>233</v>
       </c>
@@ -10739,7 +10791,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96" s="18" t="s">
         <v>233</v>
       </c>
@@ -10780,7 +10832,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" s="18" t="s">
         <v>233</v>
       </c>
@@ -10821,7 +10873,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" s="18" t="s">
         <v>233</v>
       </c>
@@ -10862,7 +10914,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" s="18" t="s">
         <v>233</v>
       </c>
@@ -10903,7 +10955,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" s="18" t="s">
         <v>233</v>
       </c>
@@ -10944,7 +10996,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" s="18" t="s">
         <v>233</v>
       </c>
@@ -10985,7 +11037,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" s="18" t="s">
         <v>233</v>
       </c>
@@ -11026,7 +11078,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" s="18" t="s">
         <v>233</v>
       </c>
@@ -11067,7 +11119,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" s="18" t="s">
         <v>233</v>
       </c>
@@ -11108,7 +11160,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" s="18" t="s">
         <v>233</v>
       </c>
@@ -11149,7 +11201,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" s="18" t="s">
         <v>233</v>
       </c>
@@ -11190,7 +11242,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" s="18" t="s">
         <v>233</v>
       </c>
@@ -11231,7 +11283,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" s="18" t="s">
         <v>233</v>
       </c>
@@ -11272,7 +11324,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109" s="18" t="s">
         <v>233</v>
       </c>
@@ -11313,7 +11365,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110" s="18" t="s">
         <v>233</v>
       </c>
@@ -11354,7 +11406,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" s="18" t="s">
         <v>233</v>
       </c>
@@ -11395,7 +11447,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" s="18" t="s">
         <v>233</v>
       </c>
@@ -11436,7 +11488,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113" s="18" t="s">
         <v>233</v>
       </c>
@@ -11477,7 +11529,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114" s="18" t="s">
         <v>233</v>
       </c>
@@ -11518,7 +11570,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A115" s="18" t="s">
         <v>233</v>
       </c>
@@ -11559,7 +11611,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A116" s="18" t="s">
         <v>233</v>
       </c>
@@ -11600,7 +11652,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A117" s="18" t="s">
         <v>233</v>
       </c>
@@ -11641,7 +11693,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A118" s="18" t="s">
         <v>233</v>
       </c>
@@ -11682,7 +11734,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A119" s="18" t="s">
         <v>234</v>
       </c>
@@ -11723,7 +11775,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A120" s="18" t="s">
         <v>234</v>
       </c>
@@ -11764,7 +11816,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A121" s="18" t="s">
         <v>234</v>
       </c>
@@ -11805,7 +11857,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A122" s="18" t="s">
         <v>234</v>
       </c>
@@ -11846,7 +11898,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A123" s="18" t="s">
         <v>234</v>
       </c>
@@ -11887,7 +11939,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A124" s="18" t="s">
         <v>234</v>
       </c>
@@ -11928,7 +11980,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A125" s="18" t="s">
         <v>234</v>
       </c>
@@ -11969,7 +12021,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A126" s="18" t="s">
         <v>234</v>
       </c>
@@ -12010,7 +12062,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A127" s="18" t="s">
         <v>234</v>
       </c>
@@ -12051,7 +12103,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A128" s="18" t="s">
         <v>234</v>
       </c>
@@ -12092,7 +12144,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A129" s="18" t="s">
         <v>234</v>
       </c>
@@ -12133,7 +12185,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A130" s="18" t="s">
         <v>234</v>
       </c>
@@ -12174,7 +12226,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A131" s="18" t="s">
         <v>234</v>
       </c>
@@ -12215,7 +12267,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A132" s="18" t="s">
         <v>234</v>
       </c>
@@ -12256,7 +12308,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A133" s="18" t="s">
         <v>234</v>
       </c>
@@ -12297,7 +12349,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A134" s="18" t="s">
         <v>234</v>
       </c>
@@ -12338,7 +12390,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A135" s="18" t="s">
         <v>234</v>
       </c>
@@ -12379,7 +12431,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A136" s="18" t="s">
         <v>234</v>
       </c>
@@ -12420,7 +12472,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A137" s="18" t="s">
         <v>234</v>
       </c>
@@ -12461,7 +12513,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A138" s="18" t="s">
         <v>234</v>
       </c>
@@ -12502,7 +12554,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A139" s="18" t="s">
         <v>234</v>
       </c>
@@ -12543,7 +12595,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A140" s="18" t="s">
         <v>234</v>
       </c>
@@ -12584,7 +12636,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A141" s="18" t="s">
         <v>234</v>
       </c>
@@ -12625,7 +12677,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A142" s="18" t="s">
         <v>234</v>
       </c>
@@ -12666,7 +12718,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A143" s="18" t="s">
         <v>234</v>
       </c>
@@ -12707,7 +12759,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A144" s="18" t="s">
         <v>234</v>
       </c>
@@ -12748,7 +12800,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A145" s="18" t="s">
         <v>234</v>
       </c>
@@ -12789,7 +12841,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A146" s="18" t="s">
         <v>234</v>
       </c>
@@ -12830,7 +12882,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A147" s="18" t="s">
         <v>234</v>
       </c>
@@ -12871,7 +12923,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A148" s="18" t="s">
         <v>234</v>
       </c>
@@ -12912,7 +12964,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A149" s="18" t="s">
         <v>234</v>
       </c>
@@ -12953,7 +13005,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A150" s="18" t="s">
         <v>234</v>
       </c>
@@ -12994,7 +13046,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A151" s="18" t="s">
         <v>234</v>
       </c>
@@ -13035,7 +13087,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A152" s="18" t="s">
         <v>235</v>
       </c>
@@ -13076,7 +13128,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A153" s="18" t="s">
         <v>235</v>
       </c>
@@ -13117,7 +13169,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A154" s="18" t="s">
         <v>235</v>
       </c>
@@ -13158,7 +13210,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A155" s="18" t="s">
         <v>235</v>
       </c>
@@ -13199,7 +13251,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A156" s="18" t="s">
         <v>235</v>
       </c>
@@ -13240,7 +13292,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A157" s="18" t="s">
         <v>235</v>
       </c>
@@ -13281,7 +13333,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A158" s="18" t="s">
         <v>235</v>
       </c>
@@ -13322,7 +13374,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A159" s="18" t="s">
         <v>235</v>
       </c>
@@ -13363,7 +13415,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A160" s="18" t="s">
         <v>235</v>
       </c>
@@ -13404,7 +13456,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A161" s="18" t="s">
         <v>235</v>
       </c>
@@ -13445,7 +13497,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A162" s="18" t="s">
         <v>235</v>
       </c>
@@ -13486,7 +13538,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A163" s="18" t="s">
         <v>235</v>
       </c>
@@ -13527,7 +13579,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A164" s="18" t="s">
         <v>235</v>
       </c>
@@ -13568,7 +13620,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A165" s="18" t="s">
         <v>235</v>
       </c>
@@ -13609,7 +13661,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A166" s="18" t="s">
         <v>235</v>
       </c>
@@ -13650,7 +13702,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A167" s="18" t="s">
         <v>235</v>
       </c>
@@ -13691,7 +13743,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A168" s="18" t="s">
         <v>235</v>
       </c>
@@ -13732,7 +13784,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A169" s="18" t="s">
         <v>235</v>
       </c>
@@ -13773,7 +13825,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A170" s="18" t="s">
         <v>236</v>
       </c>
@@ -13814,7 +13866,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A171" s="18" t="s">
         <v>236</v>
       </c>
@@ -13855,7 +13907,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A172" s="18" t="s">
         <v>236</v>
       </c>
@@ -13896,7 +13948,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A173" s="18" t="s">
         <v>236</v>
       </c>
@@ -13937,7 +13989,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A174" s="18" t="s">
         <v>236</v>
       </c>
@@ -13978,7 +14030,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A175" s="18" t="s">
         <v>236</v>
       </c>
@@ -14019,7 +14071,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A176" s="18" t="s">
         <v>236</v>
       </c>
@@ -14060,7 +14112,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A177" s="18" t="s">
         <v>236</v>
       </c>
@@ -14101,7 +14153,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A178" s="18" t="s">
         <v>236</v>
       </c>
@@ -14142,7 +14194,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A179" s="18" t="s">
         <v>236</v>
       </c>
@@ -14183,7 +14235,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A180" s="18" t="s">
         <v>236</v>
       </c>
@@ -14224,7 +14276,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A181" s="18" t="s">
         <v>236</v>
       </c>
@@ -14265,7 +14317,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A182" s="18" t="s">
         <v>236</v>
       </c>
@@ -14306,7 +14358,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A183" s="18" t="s">
         <v>236</v>
       </c>
@@ -14347,7 +14399,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A184" s="18" t="s">
         <v>236</v>
       </c>
@@ -14388,7 +14440,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A185" s="18" t="s">
         <v>236</v>
       </c>
@@ -14429,7 +14481,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A186" s="18" t="s">
         <v>236</v>
       </c>
@@ -14470,7 +14522,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A187" s="18" t="s">
         <v>236</v>
       </c>
@@ -14511,7 +14563,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A188" s="18" t="s">
         <v>236</v>
       </c>
@@ -14552,7 +14604,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A189" s="18" t="s">
         <v>236</v>
       </c>
@@ -14593,7 +14645,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A190" s="18" t="s">
         <v>236</v>
       </c>
@@ -14634,7 +14686,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A191" s="27" t="s">
         <v>215</v>
       </c>
@@ -14673,7 +14725,7 @@
       <c r="P191" s="6"/>
       <c r="Q191" s="6"/>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A192" s="27" t="s">
         <v>215</v>
       </c>
@@ -14712,7 +14764,7 @@
       <c r="P192" s="6"/>
       <c r="Q192" s="6"/>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A193" s="27" t="s">
         <v>215</v>
       </c>
@@ -14751,7 +14803,7 @@
       <c r="P193" s="6"/>
       <c r="Q193" s="6"/>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A194" s="27" t="s">
         <v>215</v>
       </c>
@@ -14790,7 +14842,7 @@
       <c r="P194" s="6"/>
       <c r="Q194" s="6"/>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A195" s="27" t="s">
         <v>215</v>
       </c>
@@ -14829,7 +14881,7 @@
       <c r="P195" s="6"/>
       <c r="Q195" s="6"/>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A196" s="27" t="s">
         <v>215</v>
       </c>
@@ -14868,7 +14920,7 @@
       <c r="P196" s="6"/>
       <c r="Q196" s="6"/>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A197" s="27" t="s">
         <v>215</v>
       </c>
@@ -14907,7 +14959,7 @@
       <c r="P197" s="6"/>
       <c r="Q197" s="6"/>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A198" s="27" t="s">
         <v>215</v>
       </c>
@@ -14946,7 +14998,7 @@
       <c r="P198" s="6"/>
       <c r="Q198" s="6"/>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A199" s="27" t="s">
         <v>215</v>
       </c>
@@ -14985,7 +15037,7 @@
       <c r="P199" s="6"/>
       <c r="Q199" s="6"/>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A200" s="27" t="s">
         <v>215</v>
       </c>
@@ -15024,7 +15076,7 @@
       <c r="P200" s="6"/>
       <c r="Q200" s="6"/>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A201" s="27" t="s">
         <v>215</v>
       </c>
@@ -15063,7 +15115,7 @@
       <c r="P201" s="6"/>
       <c r="Q201" s="6"/>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A202" s="27" t="s">
         <v>215</v>
       </c>
@@ -15102,7 +15154,7 @@
       <c r="P202" s="6"/>
       <c r="Q202" s="6"/>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A203" s="27" t="s">
         <v>215</v>
       </c>
@@ -15141,7 +15193,7 @@
       <c r="P203" s="6"/>
       <c r="Q203" s="6"/>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A204" s="27" t="s">
         <v>215</v>
       </c>
@@ -15180,7 +15232,7 @@
       <c r="P204" s="6"/>
       <c r="Q204" s="6"/>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A205" s="27" t="s">
         <v>215</v>
       </c>
@@ -15219,7 +15271,7 @@
       <c r="P205" s="6"/>
       <c r="Q205" s="6"/>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A206" s="27" t="s">
         <v>215</v>
       </c>
@@ -15258,7 +15310,7 @@
       <c r="P206" s="6"/>
       <c r="Q206" s="6"/>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A207" s="27" t="s">
         <v>215</v>
       </c>
@@ -15297,7 +15349,7 @@
       <c r="P207" s="6"/>
       <c r="Q207" s="6"/>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A208" s="27" t="s">
         <v>215</v>
       </c>
@@ -15336,7 +15388,7 @@
       <c r="P208" s="6"/>
       <c r="Q208" s="6"/>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A209" s="27" t="s">
         <v>215</v>
       </c>
@@ -15375,7 +15427,7 @@
       <c r="P209" s="6"/>
       <c r="Q209" s="6"/>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A210" s="27" t="s">
         <v>215</v>
       </c>
@@ -15414,7 +15466,7 @@
       <c r="P210" s="6"/>
       <c r="Q210" s="6"/>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A211" s="27" t="s">
         <v>215</v>
       </c>
@@ -15453,7 +15505,7 @@
       <c r="P211" s="6"/>
       <c r="Q211" s="6"/>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A212" s="27" t="s">
         <v>215</v>
       </c>
@@ -15492,7 +15544,7 @@
       <c r="P212" s="6"/>
       <c r="Q212" s="6"/>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A213" s="27" t="s">
         <v>215</v>
       </c>
@@ -15531,7 +15583,7 @@
       <c r="P213" s="6"/>
       <c r="Q213" s="6"/>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A214" s="27" t="s">
         <v>215</v>
       </c>
@@ -15570,7 +15622,7 @@
       <c r="P214" s="6"/>
       <c r="Q214" s="6"/>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A215" s="27" t="s">
         <v>215</v>
       </c>
@@ -15609,7 +15661,7 @@
       <c r="P215" s="6"/>
       <c r="Q215" s="6"/>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A216" s="27" t="s">
         <v>215</v>
       </c>
@@ -15648,7 +15700,7 @@
       <c r="P216" s="6"/>
       <c r="Q216" s="6"/>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A217" s="27" t="s">
         <v>215</v>
       </c>
@@ -15687,7 +15739,7 @@
       <c r="P217" s="6"/>
       <c r="Q217" s="6"/>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A218" s="27" t="s">
         <v>215</v>
       </c>
@@ -15726,7 +15778,7 @@
       <c r="P218" s="6"/>
       <c r="Q218" s="6"/>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A219" s="27" t="s">
         <v>215</v>
       </c>
@@ -15765,7 +15817,7 @@
       <c r="P219" s="6"/>
       <c r="Q219" s="6"/>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A220" s="27" t="s">
         <v>215</v>
       </c>
@@ -15804,7 +15856,7 @@
       <c r="P220" s="6"/>
       <c r="Q220" s="6"/>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A221" s="27" t="s">
         <v>215</v>
       </c>
@@ -15843,7 +15895,7 @@
       <c r="P221" s="6"/>
       <c r="Q221" s="6"/>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A222" s="27" t="s">
         <v>215</v>
       </c>
@@ -15882,7 +15934,7 @@
       <c r="P222" s="6"/>
       <c r="Q222" s="6"/>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A223" s="27" t="s">
         <v>215</v>
       </c>
@@ -15921,7 +15973,7 @@
       <c r="P223" s="6"/>
       <c r="Q223" s="6"/>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A224" s="27" t="s">
         <v>215</v>
       </c>
@@ -15960,7 +16012,7 @@
       <c r="P224" s="6"/>
       <c r="Q224" s="6"/>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A225" s="27" t="s">
         <v>215</v>
       </c>
@@ -15999,7 +16051,7 @@
       <c r="P225" s="6"/>
       <c r="Q225" s="6"/>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A226" s="27" t="s">
         <v>215</v>
       </c>
@@ -16038,7 +16090,7 @@
       <c r="P226" s="6"/>
       <c r="Q226" s="6"/>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A227" s="27" t="s">
         <v>215</v>
       </c>
@@ -16077,7 +16129,7 @@
       <c r="P227" s="6"/>
       <c r="Q227" s="6"/>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A228" s="27" t="s">
         <v>215</v>
       </c>
@@ -16116,7 +16168,7 @@
       <c r="P228" s="6"/>
       <c r="Q228" s="6"/>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A229" s="27" t="s">
         <v>215</v>
       </c>
@@ -16155,7 +16207,7 @@
       <c r="P229" s="6"/>
       <c r="Q229" s="6"/>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A230" s="27" t="s">
         <v>216</v>
       </c>
@@ -16194,7 +16246,7 @@
       <c r="P230" s="6"/>
       <c r="Q230" s="6"/>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A231" s="27" t="s">
         <v>216</v>
       </c>
@@ -16233,7 +16285,7 @@
       <c r="P231" s="6"/>
       <c r="Q231" s="6"/>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A232" s="27" t="s">
         <v>216</v>
       </c>
@@ -16272,7 +16324,7 @@
       <c r="P232" s="6"/>
       <c r="Q232" s="6"/>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A233" s="27" t="s">
         <v>216</v>
       </c>
@@ -16311,7 +16363,7 @@
       <c r="P233" s="6"/>
       <c r="Q233" s="6"/>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A234" s="27" t="s">
         <v>216</v>
       </c>
@@ -16350,7 +16402,7 @@
       <c r="P234" s="6"/>
       <c r="Q234" s="6"/>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A235" s="27" t="s">
         <v>216</v>
       </c>
@@ -16389,7 +16441,7 @@
       <c r="P235" s="6"/>
       <c r="Q235" s="6"/>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A236" s="27" t="s">
         <v>216</v>
       </c>
@@ -16428,7 +16480,7 @@
       <c r="P236" s="6"/>
       <c r="Q236" s="6"/>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A237" s="27" t="s">
         <v>216</v>
       </c>
@@ -16467,7 +16519,7 @@
       <c r="P237" s="6"/>
       <c r="Q237" s="6"/>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A238" s="27" t="s">
         <v>216</v>
       </c>
@@ -16506,7 +16558,7 @@
       <c r="P238" s="6"/>
       <c r="Q238" s="6"/>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A239" s="27" t="s">
         <v>216</v>
       </c>
@@ -16545,7 +16597,7 @@
       <c r="P239" s="6"/>
       <c r="Q239" s="6"/>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A240" s="27" t="s">
         <v>216</v>
       </c>
@@ -16584,7 +16636,7 @@
       <c r="P240" s="6"/>
       <c r="Q240" s="6"/>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A241" s="27" t="s">
         <v>216</v>
       </c>
@@ -16623,7 +16675,7 @@
       <c r="P241" s="6"/>
       <c r="Q241" s="6"/>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A242" s="27" t="s">
         <v>216</v>
       </c>
@@ -16662,7 +16714,7 @@
       <c r="P242" s="6"/>
       <c r="Q242" s="6"/>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A243" s="27" t="s">
         <v>216</v>
       </c>
@@ -16701,7 +16753,7 @@
       <c r="P243" s="6"/>
       <c r="Q243" s="6"/>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A244" s="27" t="s">
         <v>216</v>
       </c>
@@ -16740,7 +16792,7 @@
       <c r="P244" s="6"/>
       <c r="Q244" s="6"/>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A245" s="27" t="s">
         <v>216</v>
       </c>
@@ -16779,7 +16831,7 @@
       <c r="P245" s="6"/>
       <c r="Q245" s="6"/>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A246" s="27" t="s">
         <v>216</v>
       </c>
@@ -16818,7 +16870,7 @@
       <c r="P246" s="6"/>
       <c r="Q246" s="6"/>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A247" s="27" t="s">
         <v>216</v>
       </c>
@@ -16857,7 +16909,7 @@
       <c r="P247" s="6"/>
       <c r="Q247" s="6"/>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A248" s="27" t="s">
         <v>216</v>
       </c>
@@ -16896,7 +16948,7 @@
       <c r="P248" s="6"/>
       <c r="Q248" s="6"/>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A249" s="27" t="s">
         <v>216</v>
       </c>
@@ -16935,7 +16987,7 @@
       <c r="P249" s="6"/>
       <c r="Q249" s="6"/>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A250" s="27" t="s">
         <v>216</v>
       </c>
@@ -16974,7 +17026,7 @@
       <c r="P250" s="6"/>
       <c r="Q250" s="6"/>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A251" s="27" t="s">
         <v>216</v>
       </c>
@@ -17013,7 +17065,7 @@
       <c r="P251" s="6"/>
       <c r="Q251" s="6"/>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A252" s="27" t="s">
         <v>216</v>
       </c>
@@ -17052,7 +17104,7 @@
       <c r="P252" s="6"/>
       <c r="Q252" s="6"/>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A253" s="27" t="s">
         <v>216</v>
       </c>
@@ -17091,7 +17143,7 @@
       <c r="P253" s="6"/>
       <c r="Q253" s="6"/>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A254" s="27" t="s">
         <v>216</v>
       </c>
@@ -17130,7 +17182,7 @@
       <c r="P254" s="6"/>
       <c r="Q254" s="6"/>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A255" s="27" t="s">
         <v>216</v>
       </c>
@@ -17169,7 +17221,7 @@
       <c r="P255" s="6"/>
       <c r="Q255" s="6"/>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A256" s="27" t="s">
         <v>216</v>
       </c>
@@ -17208,7 +17260,7 @@
       <c r="P256" s="6"/>
       <c r="Q256" s="6"/>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A257" s="27" t="s">
         <v>216</v>
       </c>
@@ -17247,7 +17299,7 @@
       <c r="P257" s="6"/>
       <c r="Q257" s="6"/>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A258" s="27" t="s">
         <v>216</v>
       </c>
@@ -17286,7 +17338,7 @@
       <c r="P258" s="6"/>
       <c r="Q258" s="6"/>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A259" s="27" t="s">
         <v>216</v>
       </c>
@@ -17325,7 +17377,7 @@
       <c r="P259" s="6"/>
       <c r="Q259" s="6"/>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A260" s="27" t="s">
         <v>216</v>
       </c>
@@ -17364,7 +17416,7 @@
       <c r="P260" s="6"/>
       <c r="Q260" s="6"/>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A261" s="27" t="s">
         <v>216</v>
       </c>
@@ -17403,7 +17455,7 @@
       <c r="P261" s="6"/>
       <c r="Q261" s="6"/>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A262" s="27" t="s">
         <v>216</v>
       </c>
@@ -17442,7 +17494,7 @@
       <c r="P262" s="6"/>
       <c r="Q262" s="6"/>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A263" s="27" t="s">
         <v>216</v>
       </c>
@@ -17481,7 +17533,7 @@
       <c r="P263" s="6"/>
       <c r="Q263" s="6"/>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A264" s="27" t="s">
         <v>216</v>
       </c>
@@ -17520,7 +17572,7 @@
       <c r="P264" s="6"/>
       <c r="Q264" s="6"/>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A265" s="27" t="s">
         <v>217</v>
       </c>
@@ -17559,7 +17611,7 @@
       <c r="P265" s="6"/>
       <c r="Q265" s="6"/>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A266" s="27" t="s">
         <v>217</v>
       </c>
@@ -17598,7 +17650,7 @@
       <c r="P266" s="6"/>
       <c r="Q266" s="6"/>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A267" s="27" t="s">
         <v>217</v>
       </c>
@@ -17637,7 +17689,7 @@
       <c r="P267" s="6"/>
       <c r="Q267" s="6"/>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A268" s="27" t="s">
         <v>217</v>
       </c>
@@ -17676,7 +17728,7 @@
       <c r="P268" s="6"/>
       <c r="Q268" s="6"/>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A269" s="27" t="s">
         <v>217</v>
       </c>
@@ -17715,7 +17767,7 @@
       <c r="P269" s="6"/>
       <c r="Q269" s="6"/>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A270" s="27" t="s">
         <v>217</v>
       </c>
@@ -17754,7 +17806,7 @@
       <c r="P270" s="6"/>
       <c r="Q270" s="6"/>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A271" s="27" t="s">
         <v>217</v>
       </c>
@@ -17793,7 +17845,7 @@
       <c r="P271" s="6"/>
       <c r="Q271" s="6"/>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A272" s="27" t="s">
         <v>217</v>
       </c>
@@ -17832,7 +17884,7 @@
       <c r="P272" s="6"/>
       <c r="Q272" s="6"/>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A273" s="27" t="s">
         <v>217</v>
       </c>
@@ -17871,7 +17923,7 @@
       <c r="P273" s="6"/>
       <c r="Q273" s="6"/>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A274" s="27" t="s">
         <v>217</v>
       </c>
@@ -17910,7 +17962,7 @@
       <c r="P274" s="6"/>
       <c r="Q274" s="6"/>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A275" s="27" t="s">
         <v>217</v>
       </c>
@@ -17949,7 +18001,7 @@
       <c r="P275" s="6"/>
       <c r="Q275" s="6"/>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A276" s="27" t="s">
         <v>217</v>
       </c>
@@ -17988,7 +18040,7 @@
       <c r="P276" s="6"/>
       <c r="Q276" s="6"/>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A277" s="27" t="s">
         <v>217</v>
       </c>
@@ -18027,7 +18079,7 @@
       <c r="P277" s="6"/>
       <c r="Q277" s="6"/>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A278" s="27" t="s">
         <v>217</v>
       </c>
@@ -18066,7 +18118,7 @@
       <c r="P278" s="6"/>
       <c r="Q278" s="6"/>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A279" s="27" t="s">
         <v>217</v>
       </c>
@@ -18105,7 +18157,7 @@
       <c r="P279" s="6"/>
       <c r="Q279" s="6"/>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A280" s="27" t="s">
         <v>217</v>
       </c>
@@ -18144,7 +18196,7 @@
       <c r="P280" s="6"/>
       <c r="Q280" s="6"/>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A281" s="27" t="s">
         <v>217</v>
       </c>
@@ -18183,7 +18235,7 @@
       <c r="P281" s="6"/>
       <c r="Q281" s="6"/>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A282" s="27" t="s">
         <v>217</v>
       </c>
@@ -18222,7 +18274,7 @@
       <c r="P282" s="6"/>
       <c r="Q282" s="6"/>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A283" s="27" t="s">
         <v>217</v>
       </c>
@@ -18261,7 +18313,7 @@
       <c r="P283" s="6"/>
       <c r="Q283" s="6"/>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A284" s="27" t="s">
         <v>217</v>
       </c>
@@ -18300,7 +18352,7 @@
       <c r="P284" s="6"/>
       <c r="Q284" s="6"/>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A285" s="27" t="s">
         <v>217</v>
       </c>
@@ -18339,7 +18391,7 @@
       <c r="P285" s="6"/>
       <c r="Q285" s="6"/>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A286" s="27" t="s">
         <v>217</v>
       </c>
@@ -18378,7 +18430,7 @@
       <c r="P286" s="6"/>
       <c r="Q286" s="6"/>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A287" s="27" t="s">
         <v>217</v>
       </c>
@@ -18417,7 +18469,7 @@
       <c r="P287" s="6"/>
       <c r="Q287" s="6"/>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A288" s="27" t="s">
         <v>217</v>
       </c>
@@ -18456,7 +18508,7 @@
       <c r="P288" s="6"/>
       <c r="Q288" s="6"/>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A289" s="27" t="s">
         <v>217</v>
       </c>
@@ -18495,7 +18547,7 @@
       <c r="P289" s="6"/>
       <c r="Q289" s="6"/>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A290" s="27" t="s">
         <v>217</v>
       </c>
@@ -18534,7 +18586,7 @@
       <c r="P290" s="6"/>
       <c r="Q290" s="6"/>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A291" s="27" t="s">
         <v>217</v>
       </c>
@@ -18573,7 +18625,7 @@
       <c r="P291" s="6"/>
       <c r="Q291" s="6"/>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A292" s="27" t="s">
         <v>217</v>
       </c>
@@ -18612,7 +18664,7 @@
       <c r="P292" s="6"/>
       <c r="Q292" s="6"/>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A293" s="27" t="s">
         <v>217</v>
       </c>
@@ -18651,7 +18703,7 @@
       <c r="P293" s="6"/>
       <c r="Q293" s="6"/>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A294" s="27" t="s">
         <v>217</v>
       </c>
@@ -18690,7 +18742,7 @@
       <c r="P294" s="6"/>
       <c r="Q294" s="6"/>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A295" s="27" t="s">
         <v>217</v>
       </c>
@@ -18729,7 +18781,7 @@
       <c r="P295" s="6"/>
       <c r="Q295" s="6"/>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A296" s="27" t="s">
         <v>217</v>
       </c>
@@ -18768,7 +18820,7 @@
       <c r="P296" s="6"/>
       <c r="Q296" s="6"/>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A297" s="27" t="s">
         <v>217</v>
       </c>
@@ -18807,7 +18859,7 @@
       <c r="P297" s="6"/>
       <c r="Q297" s="6"/>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A298" s="27" t="s">
         <v>217</v>
       </c>
@@ -18846,7 +18898,7 @@
       <c r="P298" s="6"/>
       <c r="Q298" s="6"/>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A299" s="27" t="s">
         <v>217</v>
       </c>
@@ -18885,7 +18937,7 @@
       <c r="P299" s="6"/>
       <c r="Q299" s="7"/>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A300" s="27" t="s">
         <v>217</v>
       </c>
@@ -18924,7 +18976,7 @@
       <c r="P300" s="6"/>
       <c r="Q300" s="7"/>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A301" s="27" t="s">
         <v>217</v>
       </c>
@@ -18963,7 +19015,7 @@
       <c r="P301" s="6"/>
       <c r="Q301" s="7"/>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A302" s="27" t="s">
         <v>218</v>
       </c>
@@ -19004,7 +19056,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A303" s="27" t="s">
         <v>218</v>
       </c>
@@ -19045,7 +19097,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A304" s="27" t="s">
         <v>218</v>
       </c>
@@ -19086,7 +19138,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A305" s="27" t="s">
         <v>218</v>
       </c>
@@ -19127,7 +19179,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A306" s="27" t="s">
         <v>218</v>
       </c>
@@ -19168,7 +19220,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A307" s="27" t="s">
         <v>218</v>
       </c>
@@ -19209,7 +19261,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A308" s="27" t="s">
         <v>218</v>
       </c>
@@ -19250,7 +19302,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A309" s="27" t="s">
         <v>218</v>
       </c>
@@ -19291,7 +19343,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A310" s="27" t="s">
         <v>218</v>
       </c>
@@ -19332,7 +19384,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A311" s="27" t="s">
         <v>218</v>
       </c>
@@ -19373,7 +19425,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A312" s="27" t="s">
         <v>218</v>
       </c>
@@ -19414,7 +19466,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A313" s="27" t="s">
         <v>218</v>
       </c>
@@ -19455,7 +19507,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A314" s="27" t="s">
         <v>218</v>
       </c>
@@ -19496,7 +19548,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A315" s="27" t="s">
         <v>218</v>
       </c>
@@ -19537,7 +19589,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A316" s="27" t="s">
         <v>218</v>
       </c>
@@ -19578,7 +19630,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A317" s="27" t="s">
         <v>218</v>
       </c>
@@ -19619,7 +19671,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A318" s="27" t="s">
         <v>218</v>
       </c>
@@ -19660,7 +19712,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A319" s="27" t="s">
         <v>218</v>
       </c>
@@ -19701,7 +19753,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A320" s="27" t="s">
         <v>218</v>
       </c>
@@ -19742,7 +19794,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A321" s="27" t="s">
         <v>218</v>
       </c>
@@ -19783,7 +19835,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A322" s="27" t="s">
         <v>218</v>
       </c>
@@ -19824,7 +19876,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A323" s="27" t="s">
         <v>218</v>
       </c>
@@ -19865,7 +19917,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A324" s="27" t="s">
         <v>218</v>
       </c>
@@ -19906,7 +19958,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A325" s="27" t="s">
         <v>218</v>
       </c>
@@ -19947,7 +19999,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A326" s="27" t="s">
         <v>218</v>
       </c>
@@ -19988,7 +20040,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A327" s="27" t="s">
         <v>218</v>
       </c>
@@ -20029,7 +20081,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A328" s="27" t="s">
         <v>218</v>
       </c>
@@ -20070,7 +20122,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A329" s="27" t="s">
         <v>218</v>
       </c>
@@ -20111,7 +20163,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A330" s="27" t="s">
         <v>218</v>
       </c>
@@ -20152,7 +20204,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A331" s="27" t="s">
         <v>218</v>
       </c>
@@ -20193,7 +20245,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A332" s="27" t="s">
         <v>218</v>
       </c>
@@ -20234,7 +20286,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A333" s="27" t="s">
         <v>218</v>
       </c>
@@ -20275,7 +20327,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A334" s="27" t="s">
         <v>218</v>
       </c>
@@ -20316,7 +20368,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A335" s="27" t="s">
         <v>218</v>
       </c>
@@ -20357,7 +20409,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A336" s="27" t="s">
         <v>218</v>
       </c>
@@ -20398,7 +20450,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A337" s="27" t="s">
         <v>218</v>
       </c>
@@ -20439,7 +20491,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A338" s="27" t="s">
         <v>219</v>
       </c>
@@ -20480,7 +20532,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A339" s="27" t="s">
         <v>219</v>
       </c>
@@ -20521,7 +20573,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A340" s="27" t="s">
         <v>219</v>
       </c>
@@ -20562,7 +20614,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A341" s="27" t="s">
         <v>219</v>
       </c>
@@ -20603,7 +20655,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A342" s="27" t="s">
         <v>219</v>
       </c>
@@ -20644,7 +20696,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A343" s="27" t="s">
         <v>219</v>
       </c>
@@ -20685,7 +20737,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A344" s="27" t="s">
         <v>219</v>
       </c>
@@ -20726,7 +20778,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A345" s="27" t="s">
         <v>219</v>
       </c>
@@ -20767,7 +20819,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A346" s="27" t="s">
         <v>219</v>
       </c>
@@ -20808,7 +20860,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A347" s="27" t="s">
         <v>219</v>
       </c>
@@ -20849,7 +20901,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A348" s="27" t="s">
         <v>219</v>
       </c>
@@ -20890,7 +20942,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A349" s="27" t="s">
         <v>219</v>
       </c>
@@ -20931,7 +20983,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A350" s="27" t="s">
         <v>219</v>
       </c>
@@ -20972,7 +21024,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A351" s="27" t="s">
         <v>219</v>
       </c>
@@ -21013,7 +21065,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A352" s="27" t="s">
         <v>219</v>
       </c>
@@ -21054,7 +21106,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A353" s="27" t="s">
         <v>219</v>
       </c>
@@ -21095,7 +21147,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A354" s="27" t="s">
         <v>219</v>
       </c>
@@ -21136,7 +21188,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A355" s="27" t="s">
         <v>219</v>
       </c>
@@ -21177,7 +21229,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A356" s="27" t="s">
         <v>219</v>
       </c>
@@ -21218,7 +21270,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A357" s="27" t="s">
         <v>219</v>
       </c>
@@ -21259,7 +21311,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A358" s="27" t="s">
         <v>219</v>
       </c>
@@ -21300,7 +21352,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A359" s="27" t="s">
         <v>219</v>
       </c>
@@ -21341,7 +21393,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A360" s="27" t="s">
         <v>219</v>
       </c>
@@ -21382,7 +21434,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A361" s="27" t="s">
         <v>219</v>
       </c>
@@ -21423,7 +21475,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A362" s="27" t="s">
         <v>219</v>
       </c>
@@ -21464,7 +21516,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A363" s="27" t="s">
         <v>219</v>
       </c>
@@ -21505,7 +21557,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A364" s="27" t="s">
         <v>219</v>
       </c>
@@ -21546,7 +21598,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A365" s="27" t="s">
         <v>219</v>
       </c>
@@ -21587,7 +21639,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A366" s="27" t="s">
         <v>219</v>
       </c>
@@ -21628,7 +21680,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A367" s="27" t="s">
         <v>219</v>
       </c>
@@ -21669,7 +21721,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A368" s="27" t="s">
         <v>219</v>
       </c>
@@ -21710,7 +21762,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A369" s="27" t="s">
         <v>219</v>
       </c>
@@ -21751,7 +21803,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A370" s="27" t="s">
         <v>219</v>
       </c>
@@ -21792,7 +21844,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A371" s="27" t="s">
         <v>219</v>
       </c>
@@ -21833,7 +21885,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A372" s="27" t="s">
         <v>219</v>
       </c>
@@ -21874,7 +21926,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A373" s="27" t="s">
         <v>219</v>
       </c>
@@ -21915,7 +21967,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A374" s="27" t="s">
         <v>219</v>
       </c>
@@ -21956,7 +22008,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A375" s="27" t="s">
         <v>219</v>
       </c>
@@ -21997,7 +22049,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A376" s="27" t="s">
         <v>219</v>
       </c>
@@ -22038,7 +22090,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A377" s="27" t="s">
         <v>220</v>
       </c>
@@ -22079,7 +22131,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A378" s="27" t="s">
         <v>220</v>
       </c>
@@ -22120,7 +22172,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A379" s="27" t="s">
         <v>220</v>
       </c>
@@ -22161,7 +22213,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A380" s="27" t="s">
         <v>220</v>
       </c>
@@ -22202,7 +22254,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A381" s="27" t="s">
         <v>220</v>
       </c>
@@ -22243,7 +22295,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A382" s="27" t="s">
         <v>220</v>
       </c>
@@ -22284,7 +22336,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A383" s="27" t="s">
         <v>220</v>
       </c>
@@ -22325,7 +22377,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A384" s="27" t="s">
         <v>220</v>
       </c>
@@ -22366,7 +22418,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A385" s="27" t="s">
         <v>220</v>
       </c>
@@ -22407,7 +22459,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A386" s="27" t="s">
         <v>220</v>
       </c>
@@ -22448,7 +22500,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A387" s="27" t="s">
         <v>220</v>
       </c>
@@ -22489,7 +22541,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A388" s="27" t="s">
         <v>220</v>
       </c>
@@ -22530,7 +22582,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A389" s="27" t="s">
         <v>220</v>
       </c>
@@ -22571,7 +22623,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A390" s="27" t="s">
         <v>220</v>
       </c>
@@ -22612,7 +22664,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A391" s="27" t="s">
         <v>220</v>
       </c>
@@ -22653,7 +22705,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A392" s="27" t="s">
         <v>220</v>
       </c>
@@ -22694,7 +22746,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A393" s="27" t="s">
         <v>220</v>
       </c>
@@ -22735,7 +22787,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A394" s="27" t="s">
         <v>220</v>
       </c>
@@ -22776,7 +22828,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A395" s="27" t="s">
         <v>220</v>
       </c>
@@ -22817,7 +22869,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A396" s="27" t="s">
         <v>220</v>
       </c>
@@ -22858,7 +22910,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A397" s="27" t="s">
         <v>220</v>
       </c>
@@ -22899,7 +22951,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A398" s="27" t="s">
         <v>220</v>
       </c>
@@ -22940,7 +22992,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A399" s="27" t="s">
         <v>220</v>
       </c>
@@ -22981,7 +23033,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A400" s="27" t="s">
         <v>220</v>
       </c>
@@ -23022,7 +23074,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A401" s="27" t="s">
         <v>220</v>
       </c>
@@ -23063,7 +23115,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="402" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A402" s="18" t="s">
         <v>756</v>
       </c>
@@ -23104,7 +23156,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A403" s="18" t="s">
         <v>756</v>
       </c>
@@ -23145,7 +23197,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A404" s="18" t="s">
         <v>756</v>
       </c>
@@ -23186,7 +23238,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A405" s="18" t="s">
         <v>756</v>
       </c>
@@ -23227,7 +23279,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A406" s="18" t="s">
         <v>756</v>
       </c>
@@ -23268,7 +23320,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A407" s="18" t="s">
         <v>756</v>
       </c>
@@ -23309,7 +23361,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="408" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A408" s="18" t="s">
         <v>756</v>
       </c>
@@ -23350,7 +23402,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A409" s="18" t="s">
         <v>756</v>
       </c>
@@ -23391,7 +23443,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="410" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A410" s="18" t="s">
         <v>756</v>
       </c>
@@ -23432,7 +23484,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A411" s="18" t="s">
         <v>756</v>
       </c>
@@ -23473,7 +23525,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="412" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A412" s="18" t="s">
         <v>756</v>
       </c>
@@ -23514,7 +23566,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A413" s="18" t="s">
         <v>756</v>
       </c>
@@ -23555,7 +23607,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="414" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A414" s="18" t="s">
         <v>756</v>
       </c>
@@ -23596,7 +23648,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A415" s="18" t="s">
         <v>756</v>
       </c>
@@ -23637,7 +23689,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="416" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A416" s="18" t="s">
         <v>756</v>
       </c>
@@ -23678,7 +23730,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="417" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A417" s="18" t="s">
         <v>756</v>
       </c>
@@ -23719,7 +23771,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="418" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A418" s="18" t="s">
         <v>756</v>
       </c>
@@ -23760,7 +23812,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="419" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A419" s="18" t="s">
         <v>756</v>
       </c>
@@ -23801,7 +23853,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="420" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A420" s="18" t="s">
         <v>756</v>
       </c>
@@ -23842,7 +23894,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="421" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A421" s="18" t="s">
         <v>756</v>
       </c>
@@ -23883,7 +23935,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="422" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A422" s="18" t="s">
         <v>756</v>
       </c>
@@ -23924,7 +23976,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="423" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A423" s="18" t="s">
         <v>756</v>
       </c>
@@ -23965,7 +24017,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="424" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A424" s="18" t="s">
         <v>757</v>
       </c>
@@ -24006,7 +24058,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="425" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A425" s="18" t="s">
         <v>757</v>
       </c>
@@ -24047,7 +24099,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="426" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A426" s="18" t="s">
         <v>757</v>
       </c>
@@ -24088,7 +24140,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="427" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A427" s="18" t="s">
         <v>757</v>
       </c>
@@ -24129,7 +24181,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="428" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A428" s="18" t="s">
         <v>757</v>
       </c>
@@ -24170,7 +24222,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="429" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A429" s="18" t="s">
         <v>757</v>
       </c>
@@ -24211,7 +24263,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="430" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A430" s="18" t="s">
         <v>757</v>
       </c>
@@ -24252,7 +24304,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="431" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A431" s="18" t="s">
         <v>757</v>
       </c>
@@ -24293,7 +24345,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="432" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A432" s="18" t="s">
         <v>757</v>
       </c>
@@ -24334,7 +24386,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="433" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A433" s="18" t="s">
         <v>757</v>
       </c>
@@ -24375,7 +24427,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="434" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A434" s="18" t="s">
         <v>757</v>
       </c>
@@ -24416,7 +24468,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="435" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A435" s="18" t="s">
         <v>757</v>
       </c>
@@ -24457,7 +24509,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="436" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A436" s="18" t="s">
         <v>757</v>
       </c>
@@ -24498,7 +24550,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="437" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A437" s="18" t="s">
         <v>757</v>
       </c>
@@ -24539,7 +24591,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="438" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A438" s="18" t="s">
         <v>757</v>
       </c>
@@ -24580,7 +24632,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="439" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A439" s="18" t="s">
         <v>757</v>
       </c>
@@ -24621,7 +24673,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="440" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A440" s="18" t="s">
         <v>757</v>
       </c>
@@ -24662,7 +24714,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="441" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A441" s="18" t="s">
         <v>757</v>
       </c>
@@ -24703,7 +24755,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="442" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A442" s="18" t="s">
         <v>757</v>
       </c>
@@ -24744,7 +24796,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="443" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A443" s="18" t="s">
         <v>758</v>
       </c>
@@ -24783,7 +24835,7 @@
       <c r="P443" s="6"/>
       <c r="Q443" s="6"/>
     </row>
-    <row r="444" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A444" s="18" t="s">
         <v>758</v>
       </c>
@@ -24822,7 +24874,7 @@
       <c r="P444" s="6"/>
       <c r="Q444" s="6"/>
     </row>
-    <row r="445" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A445" s="18" t="s">
         <v>758</v>
       </c>
@@ -24861,7 +24913,7 @@
       <c r="P445" s="6"/>
       <c r="Q445" s="6"/>
     </row>
-    <row r="446" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A446" s="18" t="s">
         <v>758</v>
       </c>
@@ -24900,7 +24952,7 @@
       <c r="P446" s="6"/>
       <c r="Q446" s="6"/>
     </row>
-    <row r="447" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A447" s="18" t="s">
         <v>758</v>
       </c>
@@ -24960,21 +25012,21 @@
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.25" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="129.25" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="37.375" customWidth="1"/>
-    <col min="6" max="6" width="25.625" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.58203125" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
     <col min="8" max="8" width="34.5" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
-    <col min="10" max="10" width="20.375" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -25006,7 +25058,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>52</v>
       </c>
@@ -25034,7 +25086,7 @@
       </c>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>211</v>
       </c>
@@ -25062,7 +25114,7 @@
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>751</v>
       </c>
@@ -25105,20 +25157,20 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.375" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="29.625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="29.58203125" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="21.75" customWidth="1"/>
     <col min="7" max="7" width="19.75" customWidth="1"/>
-    <col min="8" max="8" width="28.625" customWidth="1"/>
-    <col min="9" max="9" width="22.625" customWidth="1"/>
+    <col min="8" max="8" width="28.58203125" customWidth="1"/>
+    <col min="9" max="9" width="22.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
@@ -25147,7 +25199,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>52</v>
       </c>
@@ -25162,7 +25214,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>52</v>
       </c>
@@ -25177,7 +25229,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>52</v>
       </c>
@@ -25192,7 +25244,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>52</v>
       </c>
@@ -25207,7 +25259,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>52</v>
       </c>
@@ -25222,7 +25274,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>52</v>
       </c>
@@ -25237,7 +25289,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>52</v>
       </c>
@@ -25252,7 +25304,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>52</v>
       </c>
@@ -25267,7 +25319,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
         <v>211</v>
       </c>
@@ -25282,7 +25334,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
         <v>211</v>
       </c>
@@ -25297,7 +25349,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>211</v>
       </c>
@@ -25312,7 +25364,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
         <v>211</v>
       </c>
@@ -25327,7 +25379,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="27" t="s">
         <v>211</v>
       </c>
@@ -25342,7 +25394,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="27" t="s">
         <v>211</v>
       </c>
@@ -25357,7 +25409,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>756</v>
       </c>
@@ -25372,7 +25424,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>757</v>
       </c>
@@ -25387,7 +25439,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
         <v>758</v>
       </c>
@@ -25402,7 +25454,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
     </row>
   </sheetData>
